--- a/Strains.xlsx
+++ b/Strains.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilydennis/Dropbox/EmilyDennis/EmilyDennis-str217 manuscript 2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilydennis/Desktop/rawdata_and_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -188,9 +188,6 @@
     <t>str-217(ejd001);mzmEx[Psre1::GCaMP5kopt + Psre-1::tagRFP)]</t>
   </si>
   <si>
-    <t>ejdEx3[Psrh-220::ReaChR]</t>
-  </si>
-  <si>
     <t>AddGene plasmid</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
   </si>
   <si>
     <t>(pJA42, pDD162, pLV002)</t>
-  </si>
-  <si>
-    <t>pLV004</t>
   </si>
   <si>
     <t>str-217(ejd003); ejdEx1[pLV001(Pstr-217::str-217::SL2::GFP)]</t>
@@ -357,6 +351,12 @@
   </si>
   <si>
     <t>Name used in text</t>
+  </si>
+  <si>
+    <t>plasmid was gift from Elias Scheer, Bargmann lab</t>
+  </si>
+  <si>
+    <t>ejdEx3[pES01(Psrh-220::ReaChR)]</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -603,6 +603,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1107,7 +1113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="75" zoomScaleSheetLayoutView="109" zoomScalePageLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="141" zoomScaleSheetLayoutView="109" zoomScalePageLayoutView="141" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1123,7 +1131,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>48</v>
@@ -1132,7 +1140,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>46</v>
@@ -1158,7 +1166,7 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
@@ -1169,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="33"/>
@@ -1188,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="33"/>
@@ -1207,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="33"/>
@@ -1230,10 +1238,10 @@
         <v>36</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="18"/>
@@ -1253,14 +1261,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>20</v>
@@ -1278,11 +1286,11 @@
         <v>7</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>31</v>
@@ -1303,10 +1311,10 @@
         <v>43</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="18"/>
@@ -1322,11 +1330,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>32</v>
@@ -1363,28 +1371,28 @@
         <v>35</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="18"/>
@@ -1411,7 +1419,7 @@
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
@@ -1425,23 +1433,23 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="18"/>
+      <c r="C15" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>86</v>
+      </c>
       <c r="G15" s="19" t="s">
         <v>25</v>
       </c>
@@ -1458,7 +1466,7 @@
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="24" t="s">
@@ -1490,10 +1498,10 @@
         <v>43</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="18"/>
@@ -1503,47 +1511,47 @@
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="33"/>
       <c r="F19" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="33"/>
       <c r="F20" s="18"/>
       <c r="G20" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="34"/>
